--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabar\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C008C4-1328-4E3A-9582-EED88FD5D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF9005-249D-4D91-95BA-93CE74CF9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,57 +26,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>ramesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>test request plz don't consider</t>
+  </si>
+  <si>
+    <t>likith</t>
+  </si>
+  <si>
+    <t>likith@gmail.com</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
+    <t>saran</t>
+  </si>
+  <si>
+    <t>saran@gmail.com</t>
+  </si>
+  <si>
+    <t>sad12@gmail.com</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>.net</t>
+  </si>
   <si>
     <t>FullName</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>ramesh@gmail.com</t>
-  </si>
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>test request plz don't consider</t>
-  </si>
-  <si>
-    <t>likith</t>
-  </si>
-  <si>
-    <t>suresh</t>
-  </si>
-  <si>
-    <t>likith@gmail.com</t>
-  </si>
-  <si>
-    <t>suresh@gmail.com</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>appium</t>
-  </si>
-  <si>
-    <t>mahesh</t>
-  </si>
-  <si>
-    <t>mahi@gmail.com</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
   </si>
 </sst>
 </file>
@@ -406,84 +407,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72597FDA-A38F-47BC-B593-454D6C2B2CED}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8799BBB1-D92C-43ED-BF4D-933982E58C69}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4A7566A5-32FE-4859-BCDC-FFC039DC7A48}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{623C4016-4FC7-47B0-A3E8-7352D4541578}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{334AFDDA-DF26-4ADD-840A-B3847F4D87E7}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F3D11146-E84E-442A-BEFD-DDA8ED41A6A6}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{F3E40630-BBAD-42BB-AB8A-DEE00EE280DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
